--- a/OnSSET/OnSSET_New/specs_paper_new.xlsx
+++ b/OnSSET/OnSSET_New/specs_paper_new.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="78">
   <si>
     <t xml:space="preserve">Scenario</t>
   </si>
@@ -110,10 +110,13 @@
     <t xml:space="preserve">Low Heating Value</t>
   </si>
   <si>
+    <t xml:space="preserve">0.58</t>
+  </si>
+  <si>
     <t xml:space="preserve">0.5</t>
   </si>
   <si>
-    <t xml:space="preserve">31.4</t>
+    <t xml:space="preserve">0.31</t>
   </si>
   <si>
     <t xml:space="preserve">9.9</t>
@@ -435,7 +438,7 @@
       <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.58"/>
@@ -564,10 +567,10 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R3" activeCellId="0" sqref="R3"/>
+      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="15.42"/>
@@ -581,7 +584,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="25.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="20.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="21.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="17.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="17.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="13.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="19.72"/>
   </cols>
@@ -668,8 +671,8 @@
       <c r="H2" s="1" t="n">
         <v>4500</v>
       </c>
-      <c r="I2" s="1" t="n">
-        <v>1</v>
+      <c r="I2" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="J2" s="1" t="n">
         <v>1</v>
@@ -687,16 +690,16 @@
         <v>1480</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P2" s="0" t="n">
         <v>5500</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -721,7 +724,7 @@
       <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="9.42"/>
@@ -763,138 +766,138 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AB1" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AC1" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AD1" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AE1" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AF1" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AG1" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AH1" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AI1" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AJ1" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AK1" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AL1" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AM1" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AN1" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AO1" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AP1" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C2" s="1" t="n">
         <v>2012</v>
@@ -998,7 +1001,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="V3" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1023,7 +1026,7 @@
       <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="1" width="25"/>
@@ -1032,144 +1035,144 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U1" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V1" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="W1" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="X1" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Y1" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Z1" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AA1" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AB1" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AC1" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AD1" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AE1" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AF1" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AG1" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AH1" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AI1" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AJ1" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AK1" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AL1" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AM1" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AN1" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AO1" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AP1" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AQ1" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AR1" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C2" s="1" t="n">
         <v>2012</v>
@@ -1282,7 +1285,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="V3" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1307,7 +1310,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="18.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="1" width="17.21"/>
@@ -1319,144 +1322,144 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="R1" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S1" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T1" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U1" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V1" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="W1" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="X1" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Y1" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Z1" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AA1" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AB1" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AC1" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AD1" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AE1" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AF1" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AG1" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AH1" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AI1" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AJ1" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AK1" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AL1" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AM1" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AN1" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AO1" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AP1" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AQ1" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AR1" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C2" s="1" t="n">
         <v>2012</v>
@@ -1569,7 +1572,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="V3" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1594,148 +1597,148 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="R1" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S1" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T1" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U1" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V1" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="W1" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="X1" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Y1" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Z1" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AA1" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AB1" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AC1" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AD1" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AE1" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AF1" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AG1" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AH1" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AI1" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AJ1" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AK1" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AL1" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AM1" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AN1" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AO1" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AP1" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AQ1" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AR1" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C2" s="1" t="n">
         <v>2012</v>
@@ -1848,7 +1851,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="V3" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1873,148 +1876,148 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="R1" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S1" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T1" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U1" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V1" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="W1" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="X1" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Y1" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Z1" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AA1" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AB1" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AC1" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AD1" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AE1" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AF1" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AG1" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AH1" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AI1" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AJ1" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AK1" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AL1" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AM1" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AN1" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AO1" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AP1" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AQ1" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AR1" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C2" s="1" t="n">
         <v>2012</v>
@@ -2127,7 +2130,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="V3" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -2152,148 +2155,148 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P1" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q1" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="R1" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S1" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T1" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U1" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V1" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="W1" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="X1" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Y1" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Z1" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AA1" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AB1" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AC1" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AD1" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AE1" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AF1" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AG1" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AH1" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AI1" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AJ1" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AK1" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AL1" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AM1" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AN1" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AO1" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AP1" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AQ1" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AR1" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C2" s="8" t="n">
         <v>2012</v>
@@ -2406,7 +2409,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="V3" s="8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
